--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019년2학기/융합소프트웨어종합설계/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CA1FF4-7933-AC46-8AF1-BE1E04CDB919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1A3F3-BABF-6046-B30A-C4E1ADCBD59B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14160" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -60,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 중간에 interrupt 걸린 시간 포함 작업시간. 10분 단위로 작성
@@ -74,6 +76,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -133,6 +136,90 @@
   <si>
     <t>강의주제 선정 및 프로젝트 수행계획서 작성</t>
   </si>
+  <si>
+    <t>이한빈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +230,7 @@
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,6 +263,24 @@
     <font>
       <sz val="8"/>
       <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -215,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +357,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -565,7 +675,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -604,6 +714,9 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
       <c r="D4" s="4"/>
@@ -674,13 +787,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+    <row r="8" spans="1:11" ht="14">
+      <c r="A8" s="21">
+        <v>43726</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>120</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="13">
       <c r="A9" s="15"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1A3F3-BABF-6046-B30A-C4E1ADCBD59B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14160" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14160" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -30,17 +24,17 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
@@ -422,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -474,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -671,22 +665,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
@@ -747,12 +739,12 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="14">
+    <row r="6" spans="1:11" ht="12.75">
       <c r="A6" s="8">
         <v>43716</v>
       </c>
       <c r="B6" s="9">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="C6" s="10">
         <v>0.72916666666666663</v>
@@ -767,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13">
+    <row r="7" spans="1:11" ht="12.75">
       <c r="A7" s="8">
         <v>43716</v>
       </c>
@@ -787,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14">
+    <row r="8" spans="1:11" ht="12.75">
       <c r="A8" s="21">
         <v>43726</v>
       </c>
@@ -807,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13">
+    <row r="9" spans="1:11" ht="12.75">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -815,7 +807,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="13">
+    <row r="10" spans="1:11" ht="12.75">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -823,7 +815,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="13">
+    <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -831,7 +823,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="13">
+    <row r="12" spans="1:11" ht="12.75">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -839,7 +831,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:11" ht="13">
+    <row r="13" spans="1:11" ht="12.75">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -855,7 +847,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:11" ht="13">
+    <row r="15" spans="1:11" ht="12.75">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -863,7 +855,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:11" ht="13">
+    <row r="16" spans="1:11" ht="12.75">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -871,7 +863,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -879,7 +871,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -895,7 +887,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -903,7 +895,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -911,7 +903,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -927,7 +919,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -951,7 +943,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" ht="13">
+    <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -959,7 +951,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:6" ht="13">
+    <row r="28" spans="1:6" ht="12.75">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -967,7 +959,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:6" ht="13">
+    <row r="29" spans="1:6" ht="12.75">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -975,7 +967,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:6" ht="13">
+    <row r="30" spans="1:6" ht="12.75">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -983,7 +975,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" ht="13">
+    <row r="31" spans="1:6" ht="12.75">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -991,7 +983,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="13">
+    <row r="32" spans="1:6" ht="12.75">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -999,7 +991,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" ht="13">
+    <row r="33" spans="1:6" ht="12.75">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1007,7 +999,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" ht="13">
+    <row r="34" spans="1:6" ht="12.75">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1015,7 +1007,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6" ht="12.75">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1023,7 +1015,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" spans="1:6" ht="13">
+    <row r="36" spans="1:6" ht="12.75">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -1031,7 +1023,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="18"/>
     </row>
-    <row r="37" spans="1:6" ht="13">
+    <row r="37" spans="1:6" ht="12.75">
       <c r="A37" s="18"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1039,7 +1031,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" spans="1:6" ht="13">
+    <row r="38" spans="1:6" ht="12.75">
       <c r="A38" s="18"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -1307,14 +1299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1425,14 +1417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1543,14 +1535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1661,14 +1653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1779,14 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1897,14 +1889,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2015,14 +2007,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2128,19 +2120,19 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2251,14 +2243,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2369,14 +2361,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2487,14 +2479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2605,14 +2597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2723,14 +2715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2841,14 +2833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2959,14 +2951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -212,6 +212,10 @@
       </rPr>
       <t>토론</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>git test</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -805,7 +811,9 @@
       <c r="C9" s="16"/>
       <c r="D9" s="11"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
       <c r="A10" s="15"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>주제 구상 및 구체화 (기능 추가)</t>
-  </si>
-  <si>
-    <t>강의주제 선정 및 프로젝트 수행계획서 작성</t>
-  </si>
-  <si>
     <t>이한빈</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -142,80 +136,689 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수행계획서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재구상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토론</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+      </rPr>
+      <t xml:space="preserve"> Team Project idea sketch</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>git test</t>
+    <r>
+      <t xml:space="preserve">idea </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체화</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Team Project </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배포</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의견</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취합</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Modeling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공부</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>화브리타임</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -225,10 +828,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -272,12 +875,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -291,7 +900,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,9 +923,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -337,17 +964,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -356,12 +975,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -672,14 +1306,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
@@ -708,12 +1340,15 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="21"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>12</v>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
@@ -746,48 +1381,48 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="8">
+      <c r="A6" s="15">
+        <v>43713</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.6875</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>90</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="15">
         <v>43716</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B7" s="16">
         <v>0.6875</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="16">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="17">
         <v>0</v>
       </c>
-      <c r="E6" s="12">
-        <v>60</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="8">
+      <c r="E7" s="18">
+        <v>120</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="15">
         <v>43716</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>120</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="21">
-        <v>43726</v>
       </c>
       <c r="B8" s="16">
         <v>0.75</v>
@@ -795,257 +1430,375 @@
       <c r="C8" s="16">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="17">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="20">
+        <v>60</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="15">
+        <v>43725</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D9" s="17">
+        <v>75</v>
+      </c>
+      <c r="E9" s="20">
+        <v>100</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="15">
+        <v>43726</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>15</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="15">
+        <v>43726</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
         <v>120</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="A12" s="15">
+        <v>43727</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D12" s="17">
+        <v>45</v>
+      </c>
+      <c r="E12" s="20">
+        <v>30</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="A13" s="15">
+        <v>43728</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D13" s="17">
+        <v>25</v>
+      </c>
+      <c r="E13" s="20">
+        <v>80</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="15">
+        <v>43732</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>75</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="15">
+        <v>43733</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>50</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="15">
+        <v>43734</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D16" s="17">
+        <v>60</v>
+      </c>
+      <c r="E16" s="20">
+        <v>150</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="15">
+        <v>43737</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>160</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="15">
+        <v>43740</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>70</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="12.75">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="12.75">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="12.75">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="12.75">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="12.75">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="12.75">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="12.75">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="12.75">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="12.75">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" ht="12.75">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" ht="12.75">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="12.75">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="D39" s="4"/>
@@ -1296,6 +2049,9 @@
       <c r="E100" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -143,6 +143,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Team Project idea sketch</t>
     </r>
@@ -166,6 +167,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -183,6 +185,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -200,6 +203,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -232,6 +236,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -249,6 +254,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -266,6 +272,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -283,6 +290,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -300,6 +308,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -329,6 +338,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -346,6 +356,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -363,6 +374,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -380,6 +392,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -397,6 +410,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -426,6 +440,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -443,6 +458,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -460,6 +476,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -477,6 +494,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -494,6 +512,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -511,6 +530,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -540,6 +560,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -557,6 +578,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -586,6 +608,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> GUI </t>
     </r>
@@ -603,6 +626,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -680,6 +704,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -697,6 +722,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -714,6 +740,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -731,6 +758,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -748,6 +776,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -780,6 +809,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Outline </t>
     </r>
@@ -803,6 +833,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Outline </t>
     </r>
@@ -820,6 +851,31 @@
   <si>
     <t>화브리타임</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -828,10 +884,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -891,6 +947,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -945,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -969,30 +1032,31 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1313,9 +1377,9 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1340,10 +1404,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1641,12 +1705,24 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="15">
+        <v>43745</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>105</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="9"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -876,6 +876,22 @@
       <t>작성</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1050,13 +1066,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1404,10 +1420,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1692,13 +1708,13 @@
         <v>0.875</v>
       </c>
       <c r="C18" s="16">
-        <v>0.92361111111111116</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D18" s="17">
         <v>0</v>
       </c>
       <c r="E18" s="18">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>23</v>
@@ -1720,17 +1736,29 @@
       <c r="E19" s="18">
         <v>105</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="15">
+        <v>43745</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>180</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="9"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -82,10 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Table C16  Time Recording Log</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>PSP: Personal Software Process</t>
   </si>
@@ -126,7 +123,7 @@
   </si>
   <si>
     <t>이한빈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -147,7 +144,7 @@
       </rPr>
       <t xml:space="preserve"> Team Project idea sketch</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -216,7 +213,7 @@
       </rPr>
       <t>구체화</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -321,7 +318,7 @@
       </rPr>
       <t>작성</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -423,7 +420,7 @@
       </rPr>
       <t>배포</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -543,7 +540,7 @@
       </rPr>
       <t>취합</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -591,7 +588,7 @@
       </rPr>
       <t>수정</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -639,7 +636,7 @@
       </rPr>
       <t>구상</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -654,7 +651,7 @@
       </rPr>
       <t>공부</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -669,7 +666,7 @@
       </rPr>
       <t>작성</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -684,7 +681,7 @@
       </rPr>
       <t>작성</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -789,7 +786,7 @@
       </rPr>
       <t>준비</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -822,7 +819,7 @@
       </rPr>
       <t>수정</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -846,11 +843,11 @@
       </rPr>
       <t>수정</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>화브리타임</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -875,7 +872,7 @@
       </rPr>
       <t>작성</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -891,7 +888,58 @@
       </rPr>
       <t>수정</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table C16  Time Recording Log</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -903,7 +951,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -922,12 +970,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Dotum"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Dotum"/>
       <family val="2"/>
@@ -1020,11 +1062,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1052,8 +1094,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1066,8 +1107,8 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1401,14 +1442,14 @@
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1">
@@ -1418,17 +1459,17 @@
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>10</v>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
@@ -1437,22 +1478,22 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1461,312 +1502,324 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>43713</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>0.6875</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>0.75</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>90</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="14">
+        <v>43716</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>120</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="15">
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="14">
         <v>43716</v>
       </c>
-      <c r="B7" s="16">
-        <v>0.6875</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="B8" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E8" s="19">
+        <v>60</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="14">
+        <v>43725</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D9" s="16">
+        <v>75</v>
+      </c>
+      <c r="E9" s="19">
+        <v>100</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>15</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
         <v>120</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="15">
-        <v>43716</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="F11" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="14">
+        <v>43727</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D12" s="16">
+        <v>45</v>
+      </c>
+      <c r="E12" s="19">
+        <v>30</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="14">
+        <v>43728</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D13" s="16">
+        <v>25</v>
+      </c>
+      <c r="E13" s="19">
+        <v>80</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A14" s="14">
+        <v>43732</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D14" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E14" s="19">
+        <v>75</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="14">
+        <v>43733</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>50</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="14">
+        <v>43734</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D16" s="16">
         <v>60</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="15">
-        <v>43725</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="E16" s="19">
+        <v>150</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="14">
+        <v>43737</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>160</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="14">
+        <v>43740</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>120</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A19" s="14">
+        <v>43745</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>105</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" s="14">
+        <v>43745</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>180</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75">
+      <c r="A21" s="14">
+        <v>43746</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
         <v>75</v>
       </c>
-      <c r="E9" s="20">
-        <v>100</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="15">
-        <v>43726</v>
-      </c>
-      <c r="B10" s="16">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <v>15</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="15">
-        <v>43726</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>120</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="15">
-        <v>43727</v>
-      </c>
-      <c r="B12" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D12" s="17">
-        <v>45</v>
-      </c>
-      <c r="E12" s="20">
-        <v>30</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="15">
-        <v>43728</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="D13" s="17">
-        <v>25</v>
-      </c>
-      <c r="E13" s="20">
-        <v>80</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="15">
-        <v>43732</v>
-      </c>
-      <c r="B14" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <v>75</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="15">
-        <v>43733</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
-        <v>50</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="15">
-        <v>43734</v>
-      </c>
-      <c r="B16" s="16">
-        <v>0.4375</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D16" s="17">
-        <v>60</v>
-      </c>
-      <c r="E16" s="20">
-        <v>150</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="15">
-        <v>43737</v>
-      </c>
-      <c r="B17" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>160</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" s="15">
-        <v>43740</v>
-      </c>
-      <c r="B18" s="16">
-        <v>0.875</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>120</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="15">
-        <v>43745</v>
-      </c>
-      <c r="B19" s="16">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>105</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75">
-      <c r="A20" s="15">
-        <v>43745</v>
-      </c>
-      <c r="B20" s="16">
-        <v>0.875</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>180</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="20" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="9"/>
@@ -2156,7 +2209,7 @@
   <mergeCells count="1">
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
@@ -2278,7 +2331,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2396,7 +2449,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2514,7 +2567,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2632,7 +2685,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2750,7 +2803,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2868,7 +2921,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2986,7 +3039,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3104,7 +3157,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3222,7 +3275,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3340,7 +3393,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3458,7 +3511,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3576,7 +3629,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3694,7 +3747,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3812,7 +3865,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3930,7 +3983,7 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>PSP: Personal Software Process</t>
   </si>
@@ -938,6 +938,270 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도안 손으로 그려서 작성 및 역할 분담</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분담한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ppt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI ppt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1431,12 +1695,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1822,28 +2086,64 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="14">
+        <v>43748</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0.5625</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D22" s="16">
+        <v>30</v>
+      </c>
+      <c r="E22" s="19">
+        <v>45</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="14">
+        <v>43750</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="D23" s="16">
+        <v>60</v>
+      </c>
+      <c r="E23" s="19">
+        <v>180</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="12.75">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="14">
+        <v>43751</v>
+      </c>
+      <c r="B24" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>240</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
       <c r="A25" s="9"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -1691,7 +1691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2053,7 +2055,7 @@
         <v>0.875</v>
       </c>
       <c r="C20" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D20" s="16">
         <v>0</v>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>PSP: Personal Software Process</t>
   </si>
@@ -1204,6 +1204,10 @@
       <t>제작</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1330,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1378,6 +1382,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1692,7 +1697,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -2156,7 +2161,9 @@
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="9"/>
+      <c r="A26" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="8"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>PSP: Personal Software Process</t>
   </si>
@@ -126,768 +126,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>새로운</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Team Project idea sketch</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">idea </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구체화</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Team Project </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수행계획서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어플리케이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설문지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배포</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의견</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취합</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수행계획서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어플리케이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> GUI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구상</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Modeling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공부</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Diagram </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Outline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Diagram </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>발표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스크립트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>발표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>준비</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Diagram </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Outline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Outline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>화브리타임</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Specification </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Specification </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -896,326 +135,1948 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어플리케이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> GUI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
+      <t xml:space="preserve">Use Case Modeling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공부</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어플리케이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> GUI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도안 손으로 그려서 작성 및 역할 분담</t>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어플리케이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> GUI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">분담한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ppt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통합</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어플리케이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> GUI ppt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애니메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삽입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동영상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제작</t>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>수정 확인</t>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key Class Design Relationship </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Team Project idea sketch</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">idea </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체화</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Team Project </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배포</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의견</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취합</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그려서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분담</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분담한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ppt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI ppt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삽입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타팀평가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타팀평가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의견</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취합</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key Class Design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sequence Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table Design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ER Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Software Architecture Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+  <numFmts count="2">
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
@@ -1334,7 +2195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1356,11 +2217,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1371,7 +2228,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1382,7 +2238,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1696,9 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1707,13 +2560,13 @@
     <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1732,14 +2585,14 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="B3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="19"/>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1773,498 +2626,652 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>43713</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>0.6875</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>0.75</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>90</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>10</v>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>43716</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>0.6875</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>120</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>11</v>
+      <c r="F7" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>43716</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>0.75</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>0</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>60</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="12">
+        <v>43725</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D9" s="14">
+        <v>75</v>
+      </c>
+      <c r="E9" s="16">
+        <v>100</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="12">
+        <v>43726</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>15</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="12">
+        <v>43726</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>120</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="12">
+        <v>43727</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D12" s="14">
+        <v>45</v>
+      </c>
+      <c r="E12" s="16">
+        <v>30</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="12">
+        <v>43728</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D13" s="14">
+        <v>25</v>
+      </c>
+      <c r="E13" s="16">
+        <v>80</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="14">
-        <v>43725</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="D9" s="16">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A14" s="12">
+        <v>43732</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>75</v>
       </c>
-      <c r="E9" s="19">
-        <v>100</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="14">
-        <v>43726</v>
-      </c>
-      <c r="B10" s="15">
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="12">
+        <v>43733</v>
+      </c>
+      <c r="B15" s="13">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C15" s="13">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>50</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="12">
+        <v>43734</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D16" s="14">
+        <v>60</v>
+      </c>
+      <c r="E16" s="16">
+        <v>150</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="12">
+        <v>43737</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>160</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="12">
+        <v>43740</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>120</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A19" s="12">
+        <v>43745</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>105</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" s="12">
+        <v>43745</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>180</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75">
+      <c r="A21" s="12">
+        <v>43746</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>75</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75">
+      <c r="A22" s="12">
+        <v>43748</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D22" s="14">
+        <v>30</v>
+      </c>
+      <c r="E22" s="16">
+        <v>45</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A23" s="12">
+        <v>43750</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="D23" s="14">
+        <v>60</v>
+      </c>
+      <c r="E23" s="16">
+        <v>180</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24" s="12">
+        <v>43751</v>
+      </c>
+      <c r="B24" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>240</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A25" s="12">
+        <v>43751</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>120</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A26" s="12">
+        <v>43753</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D26" s="14">
+        <v>15</v>
+      </c>
+      <c r="E26" s="16">
+        <v>60</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75">
+      <c r="A27" s="12">
+        <v>43755</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>75</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75">
+      <c r="A28" s="12">
+        <v>43762</v>
+      </c>
+      <c r="B28" s="13">
         <v>0.75</v>
       </c>
-      <c r="D10" s="16">
+      <c r="C28" s="13">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D28" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="19">
-        <v>15</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="14">
-        <v>43726</v>
-      </c>
-      <c r="B11" s="15">
+      <c r="E28" s="16">
+        <v>330</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75">
+      <c r="A29" s="12">
+        <v>43765</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.9375</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>90</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75">
+      <c r="A30" s="12">
+        <v>43767</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>120</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75">
+      <c r="A31" s="12">
+        <v>43769</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D31" s="14">
+        <v>60</v>
+      </c>
+      <c r="E31" s="16">
+        <v>150</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75">
+      <c r="A32" s="12">
+        <v>43769</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>75</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75">
+      <c r="A33" s="12">
+        <v>43774</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>75</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" s="12">
+        <v>43776</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>75</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75">
+      <c r="A35" s="12">
+        <v>43780</v>
+      </c>
+      <c r="B35" s="13">
         <v>0.75</v>
       </c>
-      <c r="C11" s="15">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C35" s="13">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D35" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="19">
-        <v>120</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="14">
-        <v>43727</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="E35" s="16">
+        <v>300</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" s="12">
+        <v>43781</v>
+      </c>
+      <c r="B36" s="13">
         <v>0.5625</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C36" s="13">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D12" s="16">
-        <v>45</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D36" s="14">
+        <v>40</v>
+      </c>
+      <c r="E36" s="16">
+        <v>35</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75">
+      <c r="A37" s="12">
+        <v>43781</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.9375</v>
+      </c>
+      <c r="D37" s="14">
         <v>30</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="14">
-        <v>43728</v>
-      </c>
-      <c r="B13" s="15">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="D13" s="16">
-        <v>25</v>
-      </c>
-      <c r="E13" s="19">
-        <v>80</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="14">
-        <v>43732</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0.5625</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
-        <v>75</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="14">
-        <v>43733</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19">
-        <v>50</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="14">
-        <v>43734</v>
-      </c>
-      <c r="B16" s="15">
-        <v>0.4375</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D16" s="16">
-        <v>60</v>
-      </c>
-      <c r="E16" s="19">
-        <v>150</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="14">
-        <v>43737</v>
-      </c>
-      <c r="B17" s="15">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>160</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" s="14">
-        <v>43740</v>
-      </c>
-      <c r="B18" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>120</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="14">
-        <v>43745</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>105</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75">
-      <c r="A20" s="14">
-        <v>43745</v>
-      </c>
-      <c r="B20" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>180</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="14">
-        <v>43746</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0.5625</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19">
-        <v>75</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75">
-      <c r="A22" s="14">
-        <v>43748</v>
-      </c>
-      <c r="B22" s="15">
-        <v>0.5625</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D22" s="16">
-        <v>30</v>
-      </c>
-      <c r="E22" s="19">
-        <v>45</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="14">
-        <v>43750</v>
-      </c>
-      <c r="B23" s="15">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.875</v>
-      </c>
-      <c r="D23" s="16">
-        <v>60</v>
-      </c>
-      <c r="E23" s="19">
-        <v>180</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75">
-      <c r="A24" s="14">
-        <v>43751</v>
-      </c>
-      <c r="B24" s="15">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="19">
-        <v>240</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="12.75">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.75">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.75">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" ht="12.75">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="12.75">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" ht="12.75">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" ht="12.75">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" ht="12.75">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" ht="12.75">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="12"/>
+      <c r="E37" s="16">
+        <v>330</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="12"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="D39" s="4"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\PSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB0DE64-DBD7-4B98-AD7F-56407D45D8EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14160" windowHeight="11760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -29,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>PSP: Personal Software Process</t>
   </si>
@@ -2071,16 +2077,20 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>아아앙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2141,6 +2151,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2195,7 +2211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2220,15 +2236,15 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2238,6 +2254,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2548,20 +2565,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
     <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="7.7109375" customWidth="1"/>
+    <col min="7" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
@@ -2625,7 +2644,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75">
+    <row r="6" spans="1:11" ht="13">
       <c r="A6" s="12">
         <v>43713</v>
       </c>
@@ -2645,7 +2664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
+    <row r="7" spans="1:11" ht="13">
       <c r="A7" s="12">
         <v>43716</v>
       </c>
@@ -2665,7 +2684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75">
+    <row r="8" spans="1:11" ht="13">
       <c r="A8" s="12">
         <v>43716</v>
       </c>
@@ -2685,7 +2704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75">
+    <row r="9" spans="1:11" ht="13">
       <c r="A9" s="12">
         <v>43725</v>
       </c>
@@ -2705,7 +2724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75">
+    <row r="10" spans="1:11" ht="13">
       <c r="A10" s="12">
         <v>43726</v>
       </c>
@@ -2725,7 +2744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75">
+    <row r="11" spans="1:11" ht="13">
       <c r="A11" s="12">
         <v>43726</v>
       </c>
@@ -2745,7 +2764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75">
+    <row r="12" spans="1:11" ht="13">
       <c r="A12" s="12">
         <v>43727</v>
       </c>
@@ -2765,7 +2784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75">
+    <row r="13" spans="1:11" ht="13">
       <c r="A13" s="12">
         <v>43728</v>
       </c>
@@ -2805,7 +2824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75">
+    <row r="15" spans="1:11" ht="13">
       <c r="A15" s="12">
         <v>43733</v>
       </c>
@@ -2825,7 +2844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75">
+    <row r="16" spans="1:11" ht="13">
       <c r="A16" s="12">
         <v>43734</v>
       </c>
@@ -2845,7 +2864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75">
+    <row r="17" spans="1:6" ht="13">
       <c r="A17" s="12">
         <v>43737</v>
       </c>
@@ -2865,7 +2884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="12">
         <v>43740</v>
       </c>
@@ -2905,7 +2924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="12">
         <v>43745</v>
       </c>
@@ -2925,7 +2944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="12">
         <v>43746</v>
       </c>
@@ -2945,7 +2964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75">
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="12">
         <v>43748</v>
       </c>
@@ -2985,7 +3004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75">
+    <row r="24" spans="1:6" ht="13">
       <c r="A24" s="12">
         <v>43751</v>
       </c>
@@ -3045,7 +3064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" spans="1:6" ht="13">
       <c r="A27" s="12">
         <v>43755</v>
       </c>
@@ -3065,7 +3084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
+    <row r="28" spans="1:6" ht="13">
       <c r="A28" s="12">
         <v>43762</v>
       </c>
@@ -3085,7 +3104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
+    <row r="29" spans="1:6" ht="13">
       <c r="A29" s="12">
         <v>43765</v>
       </c>
@@ -3105,7 +3124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75">
+    <row r="30" spans="1:6" ht="13">
       <c r="A30" s="12">
         <v>43767</v>
       </c>
@@ -3125,7 +3144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75">
+    <row r="31" spans="1:6" ht="13">
       <c r="A31" s="12">
         <v>43769</v>
       </c>
@@ -3145,7 +3164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75">
+    <row r="32" spans="1:6" ht="13">
       <c r="A32" s="12">
         <v>43769</v>
       </c>
@@ -3165,7 +3184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75">
+    <row r="33" spans="1:6" ht="13">
       <c r="A33" s="12">
         <v>43774</v>
       </c>
@@ -3185,7 +3204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75">
+    <row r="34" spans="1:6" ht="13">
       <c r="A34" s="12">
         <v>43776</v>
       </c>
@@ -3205,7 +3224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75">
+    <row r="35" spans="1:6" ht="13">
       <c r="A35" s="12">
         <v>43780</v>
       </c>
@@ -3225,7 +3244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75">
+    <row r="36" spans="1:6" ht="13">
       <c r="A36" s="12">
         <v>43781</v>
       </c>
@@ -3245,7 +3264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75">
+    <row r="37" spans="1:6" ht="13">
       <c r="A37" s="12">
         <v>43781</v>
       </c>
@@ -3265,13 +3284,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75">
+    <row r="38" spans="1:6" ht="16">
       <c r="A38" s="10"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="D39" s="4"/>
@@ -3536,14 +3557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3654,14 +3675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3772,14 +3793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3890,14 +3911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4008,14 +4029,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4126,14 +4147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4244,14 +4265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4362,14 +4383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4480,14 +4501,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4598,14 +4619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4716,14 +4737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4834,14 +4855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4952,14 +4973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -5070,14 +5091,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -5188,14 +5209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB0DE64-DBD7-4B98-AD7F-56407D45D8EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510749B-629D-402A-A816-44DDB3544F54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>PSP: Personal Software Process</t>
   </si>
@@ -2076,10 +2076,6 @@
       <t>작성</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>아아앙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2248,13 +2244,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2568,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
@@ -2604,10 +2600,10 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3290,9 +3286,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="D39" s="4"/>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB0DE64-DBD7-4B98-AD7F-56407D45D8EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919045A-C166-433E-8359-A3785C24F7B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>PSP: Personal Software Process</t>
   </si>
@@ -2078,8 +2078,553 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>아아앙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">Front End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발을 위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공부</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발을 위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 실습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Checklist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들기</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Use Case 1번, 2번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Java Script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로 구현</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Use Case 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Test Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Use Case 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Test Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Use Case 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">번 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Class Diagram 및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ER Diagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최종본 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">완성 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 팀과 맞추기</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>Use Case Specification 코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 팀과 맞추고 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test Data Set Pass/Fail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 결과보고서 작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2090,7 +2635,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2153,9 +2698,30 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2211,7 +2777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2230,11 +2796,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2254,7 +2815,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2568,9 +3129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2604,14 +3163,14 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2645,756 +3204,1052 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="13">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>43713</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>0.6875</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>0.75</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>90</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>43716</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>0.6875</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>120</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>43716</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>0.75</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>60</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>43725</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>0.74305555555555547</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>75</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <v>100</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>43726</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>0.75</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>15</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>43726</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>0.75</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <v>120</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>43727</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>45</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>30</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>43728</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="11">
         <v>25</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="13">
         <v>80</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>43732</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="13">
         <v>75</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>43733</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>0.77430555555555547</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="13">
         <v>50</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>43734</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>0.4375</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="11">
         <v>60</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="13">
         <v>150</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>43737</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="11">
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>160</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>43740</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>0.875</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="11">
         <v>0</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>120</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>43745</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="11">
         <v>0</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>105</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>43745</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>0.875</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <v>0</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <v>0</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>180</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>43746</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>0</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="13">
         <v>75</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>43748</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <v>30</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="13">
         <v>45</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>43750</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="10">
         <v>0.875</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="11">
         <v>60</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="13">
         <v>180</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>43751</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="10">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="11">
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="13">
         <v>240</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>43751</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="11">
         <v>0</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="13">
         <v>120</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>43753</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="11">
         <v>15</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="13">
         <v>60</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>43755</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="11">
         <v>0</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="13">
         <v>75</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>43762</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="10">
         <v>0.75</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="10">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="11">
         <v>0</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="13">
         <v>330</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>43765</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="10">
         <v>0.875</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="10">
         <v>0.9375</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="11">
         <v>0</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="13">
         <v>90</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>43767</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="10">
         <v>0.4375</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="10">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="11">
         <v>0</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>120</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>43769</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="10">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="11">
         <v>60</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>150</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>43769</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="11">
         <v>0</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>75</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13">
-      <c r="A33" s="12">
+      <c r="A33" s="9">
         <v>43774</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="11">
         <v>0</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="13">
         <v>75</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13">
-      <c r="A34" s="12">
+      <c r="A34" s="9">
         <v>43776</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="11">
         <v>0</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="13">
         <v>75</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13">
-      <c r="A35" s="12">
+      <c r="A35" s="9">
         <v>43780</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="10">
         <v>0.75</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="10">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="11">
         <v>0</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>300</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13">
-      <c r="A36" s="12">
+      <c r="A36" s="9">
         <v>43781</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="10">
         <v>0.5625</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="10">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="11">
         <v>40</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="13">
         <v>35</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13">
-      <c r="A37" s="12">
+      <c r="A37" s="9">
         <v>43781</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="10">
         <v>0.6875</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="10">
         <v>0.9375</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="11">
         <v>30</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="13">
         <v>330</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="20" t="s">
+    <row r="38" spans="1:6" ht="13">
+      <c r="A38" s="9">
+        <v>43785</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>270</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="4:5" ht="12.75" customHeight="1">
+    <row r="39" spans="1:6" ht="13">
+      <c r="A39" s="9">
+        <v>43787</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>120</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13">
+      <c r="A40" s="9">
+        <v>43789</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13">
+        <v>120</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13">
+      <c r="A41" s="9">
+        <v>43790</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>75</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16">
+      <c r="A42" s="9">
+        <v>43792</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="13">
+        <v>75</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16">
+      <c r="A43" s="9">
+        <v>43795</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13">
+        <v>120</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16">
+      <c r="A44" s="9">
+        <v>43795</v>
+      </c>
+      <c r="B44" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="13">
+        <v>75</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16">
+      <c r="A45" s="9">
+        <v>43795</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13">
+        <v>210</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16">
+      <c r="A46" s="9">
+        <v>43796</v>
+      </c>
+      <c r="B46" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>90</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16">
+      <c r="A47" s="9">
+        <v>43797</v>
+      </c>
+      <c r="B47" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="13">
+        <v>75</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16">
+      <c r="A48" s="9">
+        <v>43798</v>
+      </c>
+      <c r="B48" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="13">
+        <v>120</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A49" s="9">
+        <v>43799</v>
+      </c>
+      <c r="B49" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>210</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A50" s="9">
+        <v>43802</v>
+      </c>
+      <c r="B50" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13">
+        <v>75</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A51" s="9">
+        <v>43803</v>
+      </c>
+      <c r="B51" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13">
+        <v>300</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A52" s="9">
+        <v>43804</v>
+      </c>
+      <c r="B52" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="13">
+        <v>255</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A53" s="9">
+        <v>43805</v>
+      </c>
+      <c r="B53" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13">
+        <v>120</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A54" s="9">
+        <v>43806</v>
+      </c>
+      <c r="B54" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13">
+        <v>270</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A55" s="9">
+        <v>43807</v>
+      </c>
+      <c r="B55" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C55" s="10">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13">
+        <v>600</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A56" s="9">
+        <v>43808</v>
+      </c>
+      <c r="B56" s="10">
+        <v>0</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.75" customHeight="1">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="4:5" ht="12.75" customHeight="1">
+    <row r="58" spans="1:6" ht="12.75" customHeight="1">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="4:5" ht="12.75" customHeight="1">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="4:5" ht="12.75" customHeight="1">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="4:5" ht="12.75" customHeight="1">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="4:5" ht="12.75" customHeight="1">
+    <row r="62" spans="1:6" ht="12.75" customHeight="1">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="4:5" ht="12.75" customHeight="1">
+    <row r="63" spans="1:6" ht="12.75" customHeight="1">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="4:5" ht="12.75" customHeight="1">
+    <row r="64" spans="1:6" ht="12.75" customHeight="1">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>

--- a/PSP/20151338 이한빈 PSP.xlsx
+++ b/PSP/20151338 이한빈 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919045A-C166-433E-8359-A3785C24F7B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35DD04-CA29-4835-B05C-D680D4153283}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>PSP: Personal Software Process</t>
   </si>
@@ -2612,6 +2612,93 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Usce Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">별 동영상 촬영 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 결과보고서 작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Usce Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">별 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 캡처 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>최종</t>
     </r>
     <r>
@@ -2809,13 +2896,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3129,7 +3216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3163,10 +3252,10 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4139,7 +4228,7 @@
       <c r="E52" s="13">
         <v>255</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4159,7 +4248,7 @@
       <c r="E53" s="13">
         <v>120</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4179,7 +4268,7 @@
       <c r="E54" s="13">
         <v>270</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4199,7 +4288,7 @@
       <c r="E55" s="13">
         <v>600</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4211,19 +4300,37 @@
         <v>0</v>
       </c>
       <c r="C56" s="10">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D56" s="11">
         <v>0</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="17" t="s">
+      <c r="E56" s="13">
+        <v>480</v>
+      </c>
+      <c r="F56" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="A57" s="9">
+        <v>43808</v>
+      </c>
+      <c r="B57" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13">
+        <v>120</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" customHeight="1">
       <c r="D58" s="4"/>
